--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Selplg-Selp.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Selplg-Selp.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>91.63362566666667</v>
+        <v>2.543891666666667</v>
       </c>
       <c r="H2">
-        <v>274.900877</v>
+        <v>7.631675</v>
       </c>
       <c r="I2">
-        <v>0.538597858580931</v>
+        <v>0.0487891203504456</v>
       </c>
       <c r="J2">
-        <v>0.538597858580931</v>
+        <v>0.04878912035044559</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.90215733333334</v>
+        <v>40.81054266666667</v>
       </c>
       <c r="N2">
-        <v>53.70647200000001</v>
+        <v>122.431628</v>
       </c>
       <c r="O2">
-        <v>0.9729544377046332</v>
+        <v>0.9943414173631485</v>
       </c>
       <c r="P2">
-        <v>0.9729544377046332</v>
+        <v>0.9943414173631485</v>
       </c>
       <c r="Q2">
-        <v>1640.439583708438</v>
+        <v>103.8175994018778</v>
       </c>
       <c r="R2">
-        <v>14763.95625337595</v>
+        <v>934.3583946169</v>
       </c>
       <c r="S2">
-        <v>0.5240311766445293</v>
+        <v>0.04851304308116331</v>
       </c>
       <c r="T2">
-        <v>0.5240311766445293</v>
+        <v>0.0485130430811633</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>91.63362566666667</v>
+        <v>2.543891666666667</v>
       </c>
       <c r="H3">
-        <v>274.900877</v>
+        <v>7.631675</v>
       </c>
       <c r="I3">
-        <v>0.538597858580931</v>
+        <v>0.0487891203504456</v>
       </c>
       <c r="J3">
-        <v>0.538597858580931</v>
+        <v>0.04878912035044559</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.03385</v>
       </c>
       <c r="O3">
-        <v>0.0006132316365204891</v>
+        <v>0.0002749163555820933</v>
       </c>
       <c r="P3">
-        <v>0.0006132316365204891</v>
+        <v>0.0002749163555820933</v>
       </c>
       <c r="Q3">
-        <v>1.033932742938889</v>
+        <v>0.02870357763888889</v>
       </c>
       <c r="R3">
-        <v>9.305394686450001</v>
+        <v>0.25833219875</v>
       </c>
       <c r="S3">
-        <v>0.0003302852462440153</v>
+        <v>1.341292715880065E-05</v>
       </c>
       <c r="T3">
-        <v>0.0003302852462440153</v>
+        <v>1.341292715880065E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>91.63362566666667</v>
+        <v>2.543891666666667</v>
       </c>
       <c r="H4">
-        <v>274.900877</v>
+        <v>7.631675</v>
       </c>
       <c r="I4">
-        <v>0.538597858580931</v>
+        <v>0.0487891203504456</v>
       </c>
       <c r="J4">
-        <v>0.538597858580931</v>
+        <v>0.04878912035044559</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,22 +685,22 @@
         <v>0.322187</v>
       </c>
       <c r="O4">
-        <v>0.005836787630003747</v>
+        <v>0.002616675800765965</v>
       </c>
       <c r="P4">
-        <v>0.005836787630003747</v>
+        <v>0.002616675800765965</v>
       </c>
       <c r="Q4">
-        <v>9.841054317555445</v>
+        <v>0.2732029414694445</v>
       </c>
       <c r="R4">
-        <v>88.56948885799902</v>
+        <v>2.458826473225</v>
       </c>
       <c r="S4">
-        <v>0.003143681318511686</v>
+        <v>0.0001276653105616693</v>
       </c>
       <c r="T4">
-        <v>0.003143681318511686</v>
+        <v>0.0001276653105616693</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>91.63362566666667</v>
+        <v>2.543891666666667</v>
       </c>
       <c r="H5">
-        <v>274.900877</v>
+        <v>7.631675</v>
       </c>
       <c r="I5">
-        <v>0.538597858580931</v>
+        <v>0.0487891203504456</v>
       </c>
       <c r="J5">
-        <v>0.538597858580931</v>
+        <v>0.04878912035044559</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.3789536666666667</v>
+        <v>0.113565</v>
       </c>
       <c r="N5">
-        <v>1.136861</v>
+        <v>0.340695</v>
       </c>
       <c r="O5">
-        <v>0.02059554302884254</v>
+        <v>0.002766990480503436</v>
       </c>
       <c r="P5">
-        <v>0.02059554302884254</v>
+        <v>0.002766990480503436</v>
       </c>
       <c r="Q5">
-        <v>34.72489843634411</v>
+        <v>0.288897057125</v>
       </c>
       <c r="R5">
-        <v>312.5240859270971</v>
+        <v>2.600073514125</v>
       </c>
       <c r="S5">
-        <v>0.01109271537164601</v>
+        <v>0.0001349990315618194</v>
       </c>
       <c r="T5">
-        <v>0.01109271537164601</v>
+        <v>0.0001349990315618194</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>6.267225</v>
       </c>
       <c r="I6">
-        <v>0.01227902217367199</v>
+        <v>0.0400662233111763</v>
       </c>
       <c r="J6">
-        <v>0.01227902217367199</v>
+        <v>0.0400662233111763</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.90215733333334</v>
+        <v>40.81054266666667</v>
       </c>
       <c r="N6">
-        <v>53.70647200000001</v>
+        <v>122.431628</v>
       </c>
       <c r="O6">
-        <v>0.9729544377046332</v>
+        <v>0.9943414173631485</v>
       </c>
       <c r="P6">
-        <v>0.9729544377046332</v>
+        <v>0.9943414173631485</v>
       </c>
       <c r="Q6">
-        <v>37.39894933113333</v>
+        <v>85.25628442136667</v>
       </c>
       <c r="R6">
-        <v>336.5905439802</v>
+        <v>767.3065597923</v>
       </c>
       <c r="S6">
-        <v>0.01194692911454775</v>
+        <v>0.03983950527562346</v>
       </c>
       <c r="T6">
-        <v>0.01194692911454775</v>
+        <v>0.03983950527562347</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>6.267225</v>
       </c>
       <c r="I7">
-        <v>0.01227902217367199</v>
+        <v>0.0400662233111763</v>
       </c>
       <c r="J7">
-        <v>0.01227902217367199</v>
+        <v>0.0400662233111763</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,10 +871,10 @@
         <v>0.03385</v>
       </c>
       <c r="O7">
-        <v>0.0006132316365204891</v>
+        <v>0.0002749163555820933</v>
       </c>
       <c r="P7">
-        <v>0.0006132316365204891</v>
+        <v>0.0002749163555820933</v>
       </c>
       <c r="Q7">
         <v>0.02357172958333333</v>
@@ -883,10 +883,10 @@
         <v>0.21214556625</v>
       </c>
       <c r="S7">
-        <v>7.529884862432245E-06</v>
+        <v>1.10148600946469E-05</v>
       </c>
       <c r="T7">
-        <v>7.529884862432245E-06</v>
+        <v>1.10148600946469E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>6.267225</v>
       </c>
       <c r="I8">
-        <v>0.01227902217367199</v>
+        <v>0.0400662233111763</v>
       </c>
       <c r="J8">
-        <v>0.01227902217367199</v>
+        <v>0.0400662233111763</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -933,10 +933,10 @@
         <v>0.322187</v>
       </c>
       <c r="O8">
-        <v>0.005836787630003747</v>
+        <v>0.002616675800765965</v>
       </c>
       <c r="P8">
-        <v>0.005836787630003747</v>
+        <v>0.002616675800765965</v>
       </c>
       <c r="Q8">
         <v>0.2243576023416667</v>
@@ -945,10 +945,10 @@
         <v>2.019218421075</v>
       </c>
       <c r="S8">
-        <v>7.167004473183036E-05</v>
+        <v>0.0001048403169664402</v>
       </c>
       <c r="T8">
-        <v>7.167004473183036E-05</v>
+        <v>0.0001048403169664402</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>6.267225</v>
       </c>
       <c r="I9">
-        <v>0.01227902217367199</v>
+        <v>0.0400662233111763</v>
       </c>
       <c r="J9">
-        <v>0.01227902217367199</v>
+        <v>0.0400662233111763</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.3789536666666667</v>
+        <v>0.113565</v>
       </c>
       <c r="N9">
-        <v>1.136861</v>
+        <v>0.340695</v>
       </c>
       <c r="O9">
-        <v>0.02059554302884254</v>
+        <v>0.002766990480503436</v>
       </c>
       <c r="P9">
-        <v>0.02059554302884254</v>
+        <v>0.002766990480503436</v>
       </c>
       <c r="Q9">
-        <v>0.7916626311916667</v>
+        <v>0.237245802375</v>
       </c>
       <c r="R9">
-        <v>7.124963680725001</v>
+        <v>2.135212221375</v>
       </c>
       <c r="S9">
-        <v>0.000252893129529973</v>
+        <v>0.0001108628584917497</v>
       </c>
       <c r="T9">
-        <v>0.000252893129529973</v>
+        <v>0.0001108628584917497</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.910122666666667</v>
+        <v>1.800112666666666</v>
       </c>
       <c r="H10">
-        <v>5.730368</v>
+        <v>5.400338</v>
       </c>
       <c r="I10">
-        <v>0.01122718838645499</v>
+        <v>0.03452423493074386</v>
       </c>
       <c r="J10">
-        <v>0.01122718838645499</v>
+        <v>0.03452423493074386</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.90215733333334</v>
+        <v>40.81054266666667</v>
       </c>
       <c r="N10">
-        <v>53.70647200000001</v>
+        <v>122.431628</v>
       </c>
       <c r="O10">
-        <v>0.9729544377046332</v>
+        <v>0.9943414173631485</v>
       </c>
       <c r="P10">
-        <v>0.9729544377046332</v>
+        <v>0.9943414173631485</v>
       </c>
       <c r="Q10">
-        <v>34.1953165046329</v>
+        <v>73.4635747878071</v>
       </c>
       <c r="R10">
-        <v>307.757848541696</v>
+        <v>661.172173090264</v>
       </c>
       <c r="S10">
-        <v>0.01092354276354731</v>
+        <v>0.03432887669441417</v>
       </c>
       <c r="T10">
-        <v>0.0109235427635473</v>
+        <v>0.03432887669441417</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.910122666666667</v>
+        <v>1.800112666666666</v>
       </c>
       <c r="H11">
-        <v>5.730368</v>
+        <v>5.400338</v>
       </c>
       <c r="I11">
-        <v>0.01122718838645499</v>
+        <v>0.03452423493074386</v>
       </c>
       <c r="J11">
-        <v>0.01122718838645499</v>
+        <v>0.03452423493074386</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,22 +1119,22 @@
         <v>0.03385</v>
       </c>
       <c r="O11">
-        <v>0.0006132316365204891</v>
+        <v>0.0002749163555820933</v>
       </c>
       <c r="P11">
-        <v>0.0006132316365204891</v>
+        <v>0.0002749163555820933</v>
       </c>
       <c r="Q11">
-        <v>0.02155255075555556</v>
+        <v>0.02031127125555555</v>
       </c>
       <c r="R11">
-        <v>0.1939729568</v>
+        <v>0.1828014413</v>
       </c>
       <c r="S11">
-        <v>6.884867107749625E-06</v>
+        <v>9.491276846420106E-06</v>
       </c>
       <c r="T11">
-        <v>6.884867107749624E-06</v>
+        <v>9.491276846420108E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.910122666666667</v>
+        <v>1.800112666666666</v>
       </c>
       <c r="H12">
-        <v>5.730368</v>
+        <v>5.400338</v>
       </c>
       <c r="I12">
-        <v>0.01122718838645499</v>
+        <v>0.03452423493074386</v>
       </c>
       <c r="J12">
-        <v>0.01122718838645499</v>
+        <v>0.03452423493074386</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1181,22 +1181,22 @@
         <v>0.322187</v>
       </c>
       <c r="O12">
-        <v>0.005836787630003747</v>
+        <v>0.002616675800765965</v>
       </c>
       <c r="P12">
-        <v>0.005836787630003747</v>
+        <v>0.002616675800765965</v>
       </c>
       <c r="Q12">
-        <v>0.2051388972017778</v>
+        <v>0.1933242999117778</v>
       </c>
       <c r="R12">
-        <v>1.846250074816</v>
+        <v>1.739918699206</v>
       </c>
       <c r="S12">
-        <v>6.553071429378224E-05</v>
+        <v>9.033873008323649E-05</v>
       </c>
       <c r="T12">
-        <v>6.553071429378224E-05</v>
+        <v>9.03387300832365E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.910122666666667</v>
+        <v>1.800112666666666</v>
       </c>
       <c r="H13">
-        <v>5.730368</v>
+        <v>5.400338</v>
       </c>
       <c r="I13">
-        <v>0.01122718838645499</v>
+        <v>0.03452423493074386</v>
       </c>
       <c r="J13">
-        <v>0.01122718838645499</v>
+        <v>0.03452423493074386</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.3789536666666667</v>
+        <v>0.113565</v>
       </c>
       <c r="N13">
-        <v>1.136861</v>
+        <v>0.340695</v>
       </c>
       <c r="O13">
-        <v>0.02059554302884254</v>
+        <v>0.002766990480503436</v>
       </c>
       <c r="P13">
-        <v>0.02059554302884254</v>
+        <v>0.002766990480503436</v>
       </c>
       <c r="Q13">
-        <v>0.7238479883164446</v>
+        <v>0.20442979499</v>
       </c>
       <c r="R13">
-        <v>6.514631894848002</v>
+        <v>1.83986815491</v>
       </c>
       <c r="S13">
-        <v>0.000231230041506155</v>
+        <v>9.552822940003247E-05</v>
       </c>
       <c r="T13">
-        <v>0.000231230041506155</v>
+        <v>9.552822940003247E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>74.50083799999999</v>
+        <v>45.70747266666666</v>
       </c>
       <c r="H14">
-        <v>223.502514</v>
+        <v>137.122418</v>
       </c>
       <c r="I14">
-        <v>0.437895930858942</v>
+        <v>0.8766204214076343</v>
       </c>
       <c r="J14">
-        <v>0.437895930858942</v>
+        <v>0.8766204214076342</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>17.90215733333334</v>
+        <v>40.81054266666667</v>
       </c>
       <c r="N14">
-        <v>53.70647200000001</v>
+        <v>122.431628</v>
       </c>
       <c r="O14">
-        <v>0.9729544377046332</v>
+        <v>0.9943414173631485</v>
       </c>
       <c r="P14">
-        <v>0.9729544377046332</v>
+        <v>0.9943414173631485</v>
       </c>
       <c r="Q14">
-        <v>1333.725723341179</v>
+        <v>1865.3467634485</v>
       </c>
       <c r="R14">
-        <v>12003.53151007061</v>
+        <v>16788.1208710365</v>
       </c>
       <c r="S14">
-        <v>0.4260527891820088</v>
+        <v>0.8716599923119476</v>
       </c>
       <c r="T14">
-        <v>0.4260527891820088</v>
+        <v>0.8716599923119475</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>74.50083799999999</v>
+        <v>45.70747266666666</v>
       </c>
       <c r="H15">
-        <v>223.502514</v>
+        <v>137.122418</v>
       </c>
       <c r="I15">
-        <v>0.437895930858942</v>
+        <v>0.8766204214076343</v>
       </c>
       <c r="J15">
-        <v>0.437895930858942</v>
+        <v>0.8766204214076342</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1367,22 +1367,22 @@
         <v>0.03385</v>
       </c>
       <c r="O15">
-        <v>0.0006132316365204891</v>
+        <v>0.0002749163555820933</v>
       </c>
       <c r="P15">
-        <v>0.0006132316365204891</v>
+        <v>0.0002749163555820933</v>
       </c>
       <c r="Q15">
-        <v>0.8406177887666665</v>
+        <v>0.5157326499222221</v>
       </c>
       <c r="R15">
-        <v>7.565560098899998</v>
+        <v>4.6415938493</v>
       </c>
       <c r="S15">
-        <v>0.000268531638306292</v>
+        <v>0.0002409972914822257</v>
       </c>
       <c r="T15">
-        <v>0.000268531638306292</v>
+        <v>0.0002409972914822257</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>74.50083799999999</v>
+        <v>45.70747266666666</v>
       </c>
       <c r="H16">
-        <v>223.502514</v>
+        <v>137.122418</v>
       </c>
       <c r="I16">
-        <v>0.437895930858942</v>
+        <v>0.8766204214076343</v>
       </c>
       <c r="J16">
-        <v>0.437895930858942</v>
+        <v>0.8766204214076342</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,22 +1429,22 @@
         <v>0.322187</v>
       </c>
       <c r="O16">
-        <v>0.005836787630003747</v>
+        <v>0.002616675800765965</v>
       </c>
       <c r="P16">
-        <v>0.005836787630003747</v>
+        <v>0.002616675800765965</v>
       </c>
       <c r="Q16">
-        <v>8.001067164235332</v>
+        <v>4.908784498685111</v>
       </c>
       <c r="R16">
-        <v>72.00960447811799</v>
+        <v>44.17906048816599</v>
       </c>
       <c r="S16">
-        <v>0.002555905552466449</v>
+        <v>0.002293831443154619</v>
       </c>
       <c r="T16">
-        <v>0.002555905552466449</v>
+        <v>0.002293831443154619</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>74.50083799999999</v>
+        <v>45.70747266666666</v>
       </c>
       <c r="H17">
-        <v>223.502514</v>
+        <v>137.122418</v>
       </c>
       <c r="I17">
-        <v>0.437895930858942</v>
+        <v>0.8766204214076343</v>
       </c>
       <c r="J17">
-        <v>0.437895930858942</v>
+        <v>0.8766204214076342</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.3789536666666667</v>
+        <v>0.113565</v>
       </c>
       <c r="N17">
-        <v>1.136861</v>
+        <v>0.340695</v>
       </c>
       <c r="O17">
-        <v>0.02059554302884254</v>
+        <v>0.002766990480503436</v>
       </c>
       <c r="P17">
-        <v>0.02059554302884254</v>
+        <v>0.002766990480503436</v>
       </c>
       <c r="Q17">
-        <v>28.23236572983933</v>
+        <v>5.19076913339</v>
       </c>
       <c r="R17">
-        <v>254.091291568554</v>
+        <v>46.71692220051</v>
       </c>
       <c r="S17">
-        <v>0.009018704486160397</v>
+        <v>0.002425600361049834</v>
       </c>
       <c r="T17">
-        <v>0.009018704486160397</v>
+        <v>0.002425600361049834</v>
       </c>
     </row>
   </sheetData>
